--- a/doc/MasterGantt.xlsx
+++ b/doc/MasterGantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Life\School\UofI\Spring2018\CS383\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B76E8-8E6A-4080-925B-C76F8111643E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{071AE19F-6880-344F-B01A-17D14C8D8370}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{6D8135EA-5CB2-47EF-8136-114F90729639}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{6D8135EA-5CB2-47EF-8136-114F90729639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -336,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -348,6 +354,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,18 +672,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C572F3-08C4-48E0-8AE0-81E621EB378D}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="9" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G1" s="6" t="s">
         <v>78</v>
       </c>
@@ -686,7 +694,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="5">
         <f>SUM(C3:C58) * 100</f>
         <v>23700</v>
@@ -700,7 +708,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -717,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -731,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -745,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -759,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -787,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -801,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -815,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -832,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -846,7 +854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -860,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -874,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -888,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -902,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -916,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -930,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -944,7 +952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -958,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -975,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -989,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1045,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1160,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -1174,7 +1182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>50</v>
       </c>
@@ -1362,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>53</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>54</v>
       </c>
@@ -1446,37 +1454,32 @@
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>55</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -1593,7 +1596,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1608,14 +1611,14 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1638,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1645,7 +1648,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -1655,14 +1658,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -1674,7 +1677,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -1699,40 +1702,35 @@
   <dimension ref="B1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1838,7 +1836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -1849,47 +1847,47 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1897,21 +1895,22 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1919,19 +1918,20 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1946,37 +1946,32 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>61</v>
       </c>
@@ -1984,7 +1979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2082,7 +2077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2093,13 +2088,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -2108,7 +2103,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -2119,14 +2114,14 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -2141,7 +2136,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -2156,7 +2151,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>63</v>
       </c>
@@ -2166,7 +2161,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2169,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -2195,37 +2190,32 @@
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -2233,7 +2223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2331,7 +2321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2342,14 +2332,14 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -2359,7 +2349,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -2368,7 +2358,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -2381,7 +2371,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2380,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +2391,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -2409,7 +2399,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -2422,7 +2412,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -2444,37 +2434,32 @@
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>75</v>
       </c>
@@ -2482,7 +2467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2580,7 +2565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2591,20 +2576,20 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -2613,35 +2598,35 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -2650,7 +2635,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -2685,41 +2670,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159CE74E-2415-445E-92BD-1F8016BB5FC3}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -2727,7 +2707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2825,7 +2805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2836,21 +2816,21 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2858,7 +2838,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -2867,21 +2847,21 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2894,7 +2874,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>77</v>
       </c>

--- a/doc/MasterGantt.xlsx
+++ b/doc/MasterGantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Life\School\UofI\Spring2018\CS383\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Life\School\UofI\Spring2018\CS383\Git4\fishnchips\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0B76E8-8E6A-4080-925B-C76F8111643E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC966BE5-4539-4A2A-BC47-68E34D04F2E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{6D8135EA-5CB2-47EF-8136-114F90729639}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="6" xr2:uid="{6D8135EA-5CB2-47EF-8136-114F90729639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -304,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +323,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -336,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -348,6 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C572F3-08C4-48E0-8AE0-81E621EB378D}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -2685,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159CE74E-2415-445E-92BD-1F8016BB5FC3}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2866,6 +2873,9 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
@@ -2885,9 +2895,9 @@
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -2911,5 +2921,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/MasterGantt.xlsx
+++ b/doc/MasterGantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Life\School\UofI\Spring2018\CS383\Git4\fishnchips\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaeunkim/QT_proj/cybervandals/fishnchips/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC966BE5-4539-4A2A-BC47-68E34D04F2E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="6" xr2:uid="{6D8135EA-5CB2-47EF-8136-114F90729639}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22980" windowHeight="15860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +20,15 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017" calcMode="manual"/>
+  <calcPr calcId="179017" calcMode="manual" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -279,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,21 +673,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C572F3-08C4-48E0-8AE0-81E621EB378D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" customWidth="1"/>
-    <col min="8" max="9" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G1" s="6" t="s">
         <v>78</v>
       </c>
@@ -693,7 +698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G2" s="5">
         <f>SUM(C3:C58) * 100</f>
         <v>23700</v>
@@ -707,7 +712,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -738,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -752,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -766,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -780,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -794,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -808,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -822,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -839,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -853,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -867,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -881,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -895,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -909,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -923,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -937,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -951,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -965,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -982,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1024,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -1195,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -1282,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>50</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>17</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>53</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>54</v>
       </c>
@@ -1446,44 +1451,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48505B53-2223-44A6-894C-FD29611D726F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>55</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -1600,7 +1600,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1615,14 +1615,14 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>58</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -1662,14 +1662,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>68</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -1702,44 +1702,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215D68A2-A0C2-4A29-BECC-9630876742E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>59</v>
       </c>
@@ -1747,7 +1742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1845,7 +1840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -1856,47 +1851,47 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>65</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +1899,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1914,7 +1909,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1926,13 +1921,13 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1946,44 +1941,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D02DE2-FED4-4AC3-A55C-1EDDE20B0B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>61</v>
       </c>
@@ -1991,7 +1981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2089,7 +2079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2100,13 +2090,13 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>22</v>
       </c>
@@ -2115,7 +2105,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -2126,14 +2116,14 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -2141,14 +2131,14 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2153,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>63</v>
       </c>
@@ -2173,7 +2163,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -2181,7 +2171,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -2195,44 +2185,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C21E74-ACAE-4665-9BE1-B2BC8FC738F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -2240,7 +2225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2349,14 +2334,14 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -2366,7 +2351,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -2375,7 +2360,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -2388,7 +2373,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -2397,7 +2382,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -2408,7 +2393,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -2416,7 +2401,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -2429,7 +2414,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -2444,44 +2429,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF92E94B-DD78-4D6A-AC9A-28029C737548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>75</v>
       </c>
@@ -2489,7 +2469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2587,7 +2567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2598,20 +2578,20 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -2620,35 +2600,35 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>45</v>
       </c>
@@ -2657,7 +2637,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -2689,44 +2669,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159CE74E-2415-445E-92BD-1F8016BB5FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" customWidth="1"/>
-    <col min="6" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="10" max="10" width="4.7265625" customWidth="1"/>
-    <col min="11" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.7265625" customWidth="1"/>
-    <col min="14" max="14" width="4.54296875" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" customWidth="1"/>
-    <col min="17" max="18" width="4.81640625" customWidth="1"/>
-    <col min="19" max="19" width="4.6328125" customWidth="1"/>
-    <col min="20" max="21" width="4.81640625" customWidth="1"/>
-    <col min="22" max="23" width="4.453125" customWidth="1"/>
-    <col min="24" max="24" width="4.90625" customWidth="1"/>
-    <col min="25" max="26" width="4.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="4.83203125" customWidth="1"/>
+    <col min="10" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="16" width="4.5" customWidth="1"/>
+    <col min="17" max="18" width="4.83203125" customWidth="1"/>
+    <col min="19" max="19" width="4.6640625" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" customWidth="1"/>
+    <col min="22" max="23" width="4.5" customWidth="1"/>
+    <col min="24" max="24" width="4.83203125" customWidth="1"/>
+    <col min="25" max="26" width="4.5" customWidth="1"/>
     <col min="27" max="27" width="5" customWidth="1"/>
-    <col min="28" max="28" width="4.6328125" customWidth="1"/>
-    <col min="29" max="29" width="4.453125" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="31" max="31" width="4.6328125" customWidth="1"/>
-    <col min="32" max="32" width="4.54296875" customWidth="1"/>
-    <col min="33" max="33" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" customWidth="1"/>
+    <col min="29" max="29" width="4.5" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" customWidth="1"/>
+    <col min="32" max="32" width="4.5" customWidth="1"/>
+    <col min="33" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -2734,7 +2709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
@@ -2832,7 +2807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -2843,21 +2818,21 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>50</v>
       </c>
@@ -2865,7 +2840,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>51</v>
       </c>
@@ -2877,21 +2852,21 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>53</v>
       </c>
@@ -2904,7 +2879,7 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>77</v>
       </c>

--- a/doc/MasterGantt.xlsx
+++ b/doc/MasterGantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaeunkim/QT_proj/cybervandals/fishnchips/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB5C3EE-18BC-EB42-856F-2CEAC0F5C388}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28000" windowHeight="17560" tabRatio="990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +20,14 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -279,7 +284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,22 +748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625"/>
-    <col min="2" max="2" width="34.6640625"/>
-    <col min="3" max="6" width="8.6640625"/>
-    <col min="7" max="7" width="17.1640625"/>
-    <col min="8" max="9" width="17"/>
-    <col min="10" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
@@ -1524,35 +1521,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625"/>
-    <col min="2" max="2" width="27.83203125"/>
-    <col min="3" max="3" width="4.1640625"/>
-    <col min="4" max="4" width="4"/>
-    <col min="5" max="8" width="4.33203125"/>
-    <col min="9" max="13" width="4.6640625"/>
-    <col min="14" max="16" width="4.33203125"/>
-    <col min="17" max="21" width="4.6640625"/>
-    <col min="22" max="23" width="4.33203125"/>
-    <col min="24" max="24" width="4.6640625"/>
-    <col min="25" max="26" width="4.33203125"/>
-    <col min="27" max="27" width="4.83203125"/>
-    <col min="28" max="28" width="4.6640625"/>
-    <col min="29" max="29" width="4.33203125"/>
-    <col min="30" max="30" width="4.1640625"/>
-    <col min="31" max="31" width="4.6640625"/>
-    <col min="32" max="32" width="4.33203125"/>
-    <col min="33" max="33" width="4.6640625"/>
-    <col min="34" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -1774,35 +1750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625"/>
-    <col min="2" max="2" width="32.83203125"/>
-    <col min="3" max="3" width="4.1640625"/>
-    <col min="4" max="4" width="4"/>
-    <col min="5" max="8" width="4.33203125"/>
-    <col min="9" max="13" width="4.6640625"/>
-    <col min="14" max="16" width="4.33203125"/>
-    <col min="17" max="21" width="4.6640625"/>
-    <col min="22" max="23" width="4.33203125"/>
-    <col min="24" max="24" width="4.6640625"/>
-    <col min="25" max="26" width="4.33203125"/>
-    <col min="27" max="27" width="4.83203125"/>
-    <col min="28" max="28" width="4.6640625"/>
-    <col min="29" max="29" width="4.33203125"/>
-    <col min="30" max="30" width="4.1640625"/>
-    <col min="31" max="31" width="4.6640625"/>
-    <col min="32" max="32" width="4.33203125"/>
-    <col min="33" max="33" width="4.6640625"/>
-    <col min="34" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2012,35 +1967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625"/>
-    <col min="2" max="2" width="32.83203125"/>
-    <col min="3" max="3" width="4.1640625"/>
-    <col min="4" max="4" width="4"/>
-    <col min="5" max="8" width="4.33203125"/>
-    <col min="9" max="13" width="4.6640625"/>
-    <col min="14" max="16" width="4.33203125"/>
-    <col min="17" max="21" width="4.6640625"/>
-    <col min="22" max="23" width="4.33203125"/>
-    <col min="24" max="24" width="4.6640625"/>
-    <col min="25" max="26" width="4.33203125"/>
-    <col min="27" max="27" width="4.83203125"/>
-    <col min="28" max="28" width="4.6640625"/>
-    <col min="29" max="29" width="4.33203125"/>
-    <col min="30" max="30" width="4.1640625"/>
-    <col min="31" max="31" width="4.6640625"/>
-    <col min="32" max="32" width="4.33203125"/>
-    <col min="33" max="33" width="4.6640625"/>
-    <col min="34" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2255,35 +2189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625"/>
-    <col min="2" max="2" width="32.83203125"/>
-    <col min="3" max="3" width="4.1640625"/>
-    <col min="4" max="4" width="4"/>
-    <col min="5" max="8" width="4.33203125"/>
-    <col min="9" max="13" width="4.6640625"/>
-    <col min="14" max="16" width="4.33203125"/>
-    <col min="17" max="21" width="4.6640625"/>
-    <col min="22" max="23" width="4.33203125"/>
-    <col min="24" max="24" width="4.6640625"/>
-    <col min="25" max="26" width="4.33203125"/>
-    <col min="27" max="27" width="4.83203125"/>
-    <col min="28" max="28" width="4.6640625"/>
-    <col min="29" max="29" width="4.33203125"/>
-    <col min="30" max="30" width="4.1640625"/>
-    <col min="31" max="31" width="4.6640625"/>
-    <col min="32" max="32" width="4.33203125"/>
-    <col min="33" max="33" width="4.6640625"/>
-    <col min="34" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2424,7 +2337,7 @@
         <v>33</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
@@ -2434,32 +2347,32 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="4"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -2473,9 +2386,9 @@
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
@@ -2498,35 +2411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625"/>
-    <col min="2" max="2" width="32.83203125"/>
-    <col min="3" max="3" width="4.1640625"/>
-    <col min="4" max="4" width="4"/>
-    <col min="5" max="8" width="4.33203125"/>
-    <col min="9" max="13" width="4.6640625"/>
-    <col min="14" max="16" width="4.33203125"/>
-    <col min="17" max="21" width="4.6640625"/>
-    <col min="22" max="23" width="4.33203125"/>
-    <col min="24" max="24" width="4.6640625"/>
-    <col min="25" max="26" width="4.33203125"/>
-    <col min="27" max="27" width="4.83203125"/>
-    <col min="28" max="28" width="4.6640625"/>
-    <col min="29" max="29" width="4.33203125"/>
-    <col min="30" max="30" width="4.1640625"/>
-    <col min="31" max="31" width="4.6640625"/>
-    <col min="32" max="32" width="4.33203125"/>
-    <col min="33" max="33" width="4.6640625"/>
-    <col min="34" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -2740,35 +2632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625"/>
-    <col min="2" max="2" width="32.83203125"/>
-    <col min="3" max="3" width="4.1640625"/>
-    <col min="4" max="4" width="4"/>
-    <col min="5" max="8" width="4.33203125"/>
-    <col min="9" max="13" width="4.6640625"/>
-    <col min="14" max="16" width="4.33203125"/>
-    <col min="17" max="21" width="4.6640625"/>
-    <col min="22" max="23" width="4.33203125"/>
-    <col min="24" max="24" width="4.6640625"/>
-    <col min="25" max="26" width="4.33203125"/>
-    <col min="27" max="27" width="4.83203125"/>
-    <col min="28" max="28" width="4.6640625"/>
-    <col min="29" max="29" width="4.33203125"/>
-    <col min="30" max="30" width="4.1640625"/>
-    <col min="31" max="31" width="4.6640625"/>
-    <col min="32" max="32" width="4.33203125"/>
-    <col min="33" max="33" width="4.6640625"/>
-    <col min="34" max="1025" width="8.6640625"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B1" t="s">

--- a/doc/MasterGantt.xlsx
+++ b/doc/MasterGantt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaeunkim/QT_proj/cybervandals/fishnchips/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wei/Documents/GitHub/fishnchips/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840CD002-FC62-654E-9BC2-6A0B2EA2BF1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28000" windowHeight="17560" tabRatio="990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="16420" tabRatio="990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -284,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -308,8 +309,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +348,18 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -353,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +387,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,7 +771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1521,7 +1544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1750,11 +1773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1929,28 +1952,31 @@
         <v>20</v>
       </c>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -1962,12 +1988,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2189,10 +2215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -2411,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2632,7 +2658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/MasterGantt.xlsx
+++ b/doc/MasterGantt.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\Life\School\UofI\Spring2018\CS383\Git6\fishnchips\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24ED212-3C8A-45FA-B887-E2F4FCA39A28}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,257 +33,254 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
-    <t xml:space="preserve">Total Cost $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost so far $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost to come $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make a player class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add graphics to player 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implement user control methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shark detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platform collisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recover time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health    6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make player graphic file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrote pixmap test code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make shark banana graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrote graphics class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implement image flip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIMP learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make graphics for steam platform door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high score server interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">help koffi with levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change graphics for testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrote main function/window class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">made scene manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">master button class (play, pause, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button/background graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">game over window/function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pause button/function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load game objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">position game objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set up level settings for testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create level data files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read level data files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass level data files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generate levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connecting to high score server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make platform object/interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">making handler class interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shark movement methods/object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image flipping code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana throw functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banana eat functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make exit class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steam class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress level demo test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find audio sound effects files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find background audio file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convert file types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write sound manager class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test audio and files and code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level generation with koffi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gantt chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry Hill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">documentation (UML, RFP, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add graphics to player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shark detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform collisions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recover time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wei Zhao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make player graphic file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Lead Deliverable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaeun Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coding standards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koffi Anderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set up Github Repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load game objects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set up levels for testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">connect to high score server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gigi Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Mills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merging gantt charts</t>
+    <t>Total Cost $</t>
+  </si>
+  <si>
+    <t>Cost so far $</t>
+  </si>
+  <si>
+    <t>Cost to come $</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>make a player class</t>
+  </si>
+  <si>
+    <t>add graphics to player 1</t>
+  </si>
+  <si>
+    <t>implement user control methods</t>
+  </si>
+  <si>
+    <t>Shark detection</t>
+  </si>
+  <si>
+    <t>Platform collisions</t>
+  </si>
+  <si>
+    <t>Recover time</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>health    6</t>
+  </si>
+  <si>
+    <t>WZ</t>
+  </si>
+  <si>
+    <t>Make player graphic file</t>
+  </si>
+  <si>
+    <t>wrote pixmap test code</t>
+  </si>
+  <si>
+    <t>make shark banana graphics</t>
+  </si>
+  <si>
+    <t>wrote graphics class</t>
+  </si>
+  <si>
+    <t>implement image flip</t>
+  </si>
+  <si>
+    <t>GIMP learning</t>
+  </si>
+  <si>
+    <t>make graphics for steam platform door</t>
+  </si>
+  <si>
+    <t>high score server interface</t>
+  </si>
+  <si>
+    <t>help koffi with levels</t>
+  </si>
+  <si>
+    <t>change graphics for testing</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>wrote main function/window class</t>
+  </si>
+  <si>
+    <t>made scene manager</t>
+  </si>
+  <si>
+    <t>master button class (play, pause, etc.)</t>
+  </si>
+  <si>
+    <t>button/background graphics</t>
+  </si>
+  <si>
+    <t>game over window/function</t>
+  </si>
+  <si>
+    <t>pause button/function</t>
+  </si>
+  <si>
+    <t>level generation</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>Load game objects</t>
+  </si>
+  <si>
+    <t>position game objects</t>
+  </si>
+  <si>
+    <t>set up level settings for testing</t>
+  </si>
+  <si>
+    <t>create level data files</t>
+  </si>
+  <si>
+    <t>read level data files</t>
+  </si>
+  <si>
+    <t>pass level data files</t>
+  </si>
+  <si>
+    <t>generate levels</t>
+  </si>
+  <si>
+    <t>connecting to high score server</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t>make platform object/interface</t>
+  </si>
+  <si>
+    <t>making handler class interface</t>
+  </si>
+  <si>
+    <t>shark movement methods/object</t>
+  </si>
+  <si>
+    <t>image flipping code</t>
+  </si>
+  <si>
+    <t>banana throw functionality</t>
+  </si>
+  <si>
+    <t>banana eat functionality</t>
+  </si>
+  <si>
+    <t>make exit class</t>
+  </si>
+  <si>
+    <t>steam class</t>
+  </si>
+  <si>
+    <t>stress level demo test case</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>find audio sound effects files</t>
+  </si>
+  <si>
+    <t>find background audio file</t>
+  </si>
+  <si>
+    <t>convert file types</t>
+  </si>
+  <si>
+    <t>write sound manager class</t>
+  </si>
+  <si>
+    <t>test audio and files and code</t>
+  </si>
+  <si>
+    <t>level generation with koffi</t>
+  </si>
+  <si>
+    <t>gantt chart</t>
+  </si>
+  <si>
+    <t>Henry Hill</t>
+  </si>
+  <si>
+    <t>Hrs.</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>documentation (UML, RFP, etc.)</t>
+  </si>
+  <si>
+    <t>add graphics to player</t>
+  </si>
+  <si>
+    <t>shark detection</t>
+  </si>
+  <si>
+    <t>platform collisions</t>
+  </si>
+  <si>
+    <t>recover time</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Wei Zhao</t>
+  </si>
+  <si>
+    <t>make player graphic file</t>
+  </si>
+  <si>
+    <t>Team Lead Deliverable</t>
+  </si>
+  <si>
+    <t>Chaeun Kim</t>
+  </si>
+  <si>
+    <t>coding standards</t>
+  </si>
+  <si>
+    <t>Koffi Anderson</t>
+  </si>
+  <si>
+    <t>set up Github Repository</t>
+  </si>
+  <si>
+    <t>load game objects</t>
+  </si>
+  <si>
+    <t>set up levels for testing</t>
+  </si>
+  <si>
+    <t>connect to high score server</t>
+  </si>
+  <si>
+    <t>Gigi Young</t>
+  </si>
+  <si>
+    <t>Matthew Mills</t>
+  </si>
+  <si>
+    <t>merging gantt charts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,22 +289,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -363,7 +350,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -371,85 +358,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -508,28 +441,336 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,887 +781,879 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="2" t="n">
-        <f aca="false">SUM(C3:C58) * 100</f>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G2" s="2">
+        <f>SUM(C3:C58) * 100</f>
         <v>23900</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <f aca="false">SUM(D3:D58) * 100</f>
+      <c r="H2" s="2">
+        <f>SUM(D3:D58) * 100</f>
         <v>14900</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">SUM(E3:E58) * 100</f>
+      <c r="I2" s="2">
+        <f>SUM(E3:E58) * 100</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="0" t="n">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>6</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="0" t="n">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>5</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
         <v>6</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>8</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="0" t="n">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="0" t="n">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
         <v>4</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>4</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>17</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>3</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="E53" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>10</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="0" t="n">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>8</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>10</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>10</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T17" activeCellId="0" sqref="T17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4"/>
@@ -1430,8 +1663,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="5"/>
@@ -1445,15 +1678,15 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="4"/>
@@ -1472,8 +1705,8 @@
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="4"/>
@@ -1482,8 +1715,8 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="5"/>
@@ -1492,15 +1725,15 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>65</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="4"/>
@@ -1511,8 +1744,8 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>67</v>
       </c>
       <c r="N11" s="6"/>
@@ -1527,140 +1760,132 @@
       <c r="W11" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AG14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4"/>
@@ -1670,56 +1895,56 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="6"/>
@@ -1728,8 +1953,8 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="6"/>
@@ -1740,8 +1965,8 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="O13" s="7"/>
@@ -1749,8 +1974,8 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="7"/>
@@ -1758,140 +1983,132 @@
       <c r="P14" s="7"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4"/>
@@ -1901,14 +2118,14 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="4"/>
@@ -1916,8 +2133,8 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="4"/>
@@ -1927,15 +2144,15 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="4"/>
@@ -1949,8 +2166,8 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="4"/>
@@ -1964,8 +2181,8 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="5"/>
@@ -1974,16 +2191,16 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="T12" s="6"/>
@@ -1991,140 +2208,132 @@
       <c r="V12" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4"/>
@@ -2134,15 +2343,15 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>74</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="K5" s="4"/>
@@ -2151,8 +2360,8 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="K6" s="4"/>
@@ -2160,8 +2369,8 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="4"/>
@@ -2173,8 +2382,8 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="4"/>
@@ -2182,8 +2391,8 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="4"/>
@@ -2193,16 +2402,16 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>76</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="S11" s="7"/>
@@ -2214,8 +2423,8 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="AA12" s="6"/>
@@ -2224,140 +2433,132 @@
       <c r="AD12" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AG12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4"/>
@@ -2368,21 +2569,21 @@
       <c r="H3" s="4"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="4"/>
@@ -2390,15 +2591,15 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="M8" s="4"/>
@@ -2408,22 +2609,22 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="4"/>
@@ -2431,8 +2632,8 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="4"/>
@@ -2458,140 +2659,134 @@
       <c r="AC12" s="6"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R13" activeCellId="0" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col min="1" max="1" width="8.6328125"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="1025" width="8.6328125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2">
         <v>11</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2">
         <v>13</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2">
         <v>14</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="Q2">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="S2">
         <v>17</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>18</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>19</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>20</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="W2">
         <v>21</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>22</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Y2">
         <v>23</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="Z2">
         <v>24</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AA2">
         <v>25</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AB2">
         <v>26</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AC2">
         <v>27</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AD2">
         <v>28</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AE2">
         <v>29</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AF2">
         <v>30</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AG2">
         <v>31</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="4"/>
@@ -2601,30 +2796,30 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="4"/>
@@ -2635,22 +2830,22 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
       <c r="P10" s="7"/>
@@ -2662,8 +2857,8 @@
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>80</v>
       </c>
       <c r="L11" s="4"/>
@@ -2678,12 +2873,7 @@
       <c r="U11" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>